--- a/HA_MDI_JSON.xlsx
+++ b/HA_MDI_JSON.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesfr\Documents\GitHub\home-assistant-mdi\home-assistant-mdi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamesfr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="403">
   <si>
     <t>login</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Camera</t>
   </si>
   <si>
-    <t>Rebcam/camera</t>
-  </si>
-  <si>
     <t>Liquid temperature, pool temp etc</t>
   </si>
   <si>
@@ -1104,19 +1101,157 @@
   </si>
   <si>
     <t>lightbulb-on-outline</t>
+  </si>
+  <si>
+    <t>led-strip</t>
+  </si>
+  <si>
+    <t>LED Strip light</t>
+  </si>
+  <si>
+    <t>home-circle</t>
+  </si>
+  <si>
+    <t>camera-gopro</t>
+  </si>
+  <si>
+    <t>nintendo-switch</t>
+  </si>
+  <si>
+    <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Lava lamp</t>
+  </si>
+  <si>
+    <t>lava-lamp</t>
+  </si>
+  <si>
+    <t>google-assistant</t>
+  </si>
+  <si>
+    <t>Google Assistant</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>console-line</t>
+  </si>
+  <si>
+    <t>Console/CLI prompt (scripts, command line)</t>
+  </si>
+  <si>
+    <t>dip-switch</t>
+  </si>
+  <si>
+    <t>Dip-switch</t>
+  </si>
+  <si>
+    <t>power-socket-us</t>
+  </si>
+  <si>
+    <t>US AC smart socket</t>
+  </si>
+  <si>
+    <t>power-socket-uk</t>
+  </si>
+  <si>
+    <t>power-socket-eu</t>
+  </si>
+  <si>
+    <t>UK AC smart socket</t>
+  </si>
+  <si>
+    <t>EU AC smart socket</t>
+  </si>
+  <si>
+    <t>Webcam/camera</t>
+  </si>
+  <si>
+    <t>CCTV/Video Camera</t>
+  </si>
+  <si>
+    <t>cctv</t>
+  </si>
+  <si>
+    <t>home-automation</t>
+  </si>
+  <si>
+    <t>Home Automation</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>Fuel level sensor</t>
+  </si>
+  <si>
+    <t>television-classic</t>
+  </si>
+  <si>
+    <t>movie-roll</t>
+  </si>
+  <si>
+    <t>desktop-classic</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Cellphone</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Desktop/iMac</t>
+  </si>
+  <si>
+    <t>home-assistant</t>
+  </si>
+  <si>
+    <t>Home Assistant Icon!</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>alarm-light</t>
+  </si>
+  <si>
+    <t>alarm-bell</t>
+  </si>
+  <si>
+    <t>Alarm light</t>
+  </si>
+  <si>
+    <t>Alarm sounder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1139,8 +1274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="A1:G194"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="N208" sqref="N208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,24 +1574,24 @@
     <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
         <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="G1" t="s">
         <v>185</v>
@@ -1466,13 +1602,13 @@
         <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
         <v>183</v>
@@ -1489,19 +1625,19 @@
         <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
         <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>185</v>
@@ -1512,19 +1648,19 @@
         <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
         <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
         <v>185</v>
@@ -1535,13 +1671,13 @@
         <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>183</v>
@@ -1558,19 +1694,19 @@
         <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
         <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>185</v>
@@ -1581,19 +1717,19 @@
         <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
         <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
         <v>185</v>
@@ -1604,19 +1740,19 @@
         <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
         <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>185</v>
@@ -1627,19 +1763,19 @@
         <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
         <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
         <v>185</v>
@@ -1650,19 +1786,19 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
         <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
         <v>185</v>
@@ -1673,19 +1809,19 @@
         <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
         <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
         <v>185</v>
@@ -1696,19 +1832,19 @@
         <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
         <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
         <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
         <v>185</v>
@@ -1719,19 +1855,19 @@
         <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
         <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G13" t="s">
         <v>185</v>
@@ -1742,19 +1878,19 @@
         <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
         <v>185</v>
@@ -1765,19 +1901,19 @@
         <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
         <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>185</v>
@@ -1788,19 +1924,19 @@
         <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
         <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
         <v>185</v>
@@ -1811,19 +1947,19 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" t="s">
         <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
         <v>185</v>
@@ -1834,19 +1970,19 @@
         <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E18" t="s">
         <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
         <v>185</v>
@@ -1857,19 +1993,19 @@
         <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
         <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>185</v>
@@ -1880,19 +2016,19 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" t="s">
         <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>344</v>
       </c>
       <c r="G20" t="s">
         <v>185</v>
@@ -1903,19 +2039,19 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
         <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
         <v>185</v>
@@ -1926,19 +2062,19 @@
         <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" t="s">
         <v>183</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="G22" t="s">
         <v>185</v>
@@ -1949,19 +2085,19 @@
         <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E23" t="s">
         <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
         <v>185</v>
@@ -1972,13 +2108,13 @@
         <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
         <v>183</v>
@@ -1995,13 +2131,13 @@
         <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
         <v>183</v>
@@ -2018,19 +2154,19 @@
         <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
         <v>183</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
         <v>185</v>
@@ -2041,13 +2177,13 @@
         <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
         <v>183</v>
@@ -2064,13 +2200,13 @@
         <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" t="s">
         <v>183</v>
@@ -2087,13 +2223,13 @@
         <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
         <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" t="s">
         <v>183</v>
@@ -2110,13 +2246,13 @@
         <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30" t="s">
         <v>183</v>
@@ -2133,19 +2269,19 @@
         <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
         <v>183</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
         <v>185</v>
@@ -2156,19 +2292,19 @@
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
         <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
         <v>185</v>
@@ -2179,19 +2315,19 @@
         <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
         <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" t="s">
         <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
         <v>185</v>
@@ -2202,19 +2338,19 @@
         <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" t="s">
         <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G34" t="s">
         <v>185</v>
@@ -2225,19 +2361,19 @@
         <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" t="s">
         <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" t="s">
         <v>185</v>
@@ -2248,19 +2384,19 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="C36" t="s">
         <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" t="s">
         <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
         <v>185</v>
@@ -2271,42 +2407,42 @@
         <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
         <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="G37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>181</v>
       </c>
-      <c r="B38" t="s">
-        <v>30</v>
+      <c r="B38" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C38" t="s">
         <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" t="s">
         <v>183</v>
       </c>
       <c r="F38" t="s">
-        <v>209</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
         <v>185</v>
@@ -2317,19 +2453,19 @@
         <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39" t="s">
         <v>183</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G39" t="s">
         <v>185</v>
@@ -2340,19 +2476,19 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E40" t="s">
         <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
         <v>185</v>
@@ -2363,19 +2499,19 @@
         <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E41" t="s">
         <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
         <v>185</v>
@@ -2386,19 +2522,19 @@
         <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E42" t="s">
         <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
         <v>185</v>
@@ -2409,19 +2545,19 @@
         <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E43" t="s">
         <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
         <v>185</v>
@@ -2432,19 +2568,19 @@
         <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E44" t="s">
         <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
         <v>185</v>
@@ -2455,19 +2591,19 @@
         <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E45" t="s">
         <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
         <v>185</v>
@@ -2478,19 +2614,19 @@
         <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
         <v>185</v>
@@ -2501,19 +2637,19 @@
         <v>181</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47" t="s">
         <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="G47" t="s">
         <v>185</v>
@@ -2524,19 +2660,19 @@
         <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E48" t="s">
         <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -2547,19 +2683,19 @@
         <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E49" t="s">
         <v>183</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="G49" t="s">
         <v>185</v>
@@ -2570,19 +2706,19 @@
         <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" t="s">
         <v>183</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="G50" t="s">
         <v>185</v>
@@ -2593,65 +2729,65 @@
         <v>181</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="C51" t="s">
         <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E51" t="s">
         <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
-      <c r="B52" t="s">
-        <v>44</v>
+      <c r="B52" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C52" t="s">
         <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E52" t="s">
         <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="G52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>181</v>
       </c>
-      <c r="B53" t="s">
-        <v>45</v>
+      <c r="B53" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="C53" t="s">
         <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E53" t="s">
         <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="G53" t="s">
         <v>185</v>
@@ -2662,19 +2798,19 @@
         <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
         <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E54" t="s">
         <v>183</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
         <v>185</v>
@@ -2685,19 +2821,19 @@
         <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
         <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E55" t="s">
         <v>183</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="G55" t="s">
         <v>185</v>
@@ -2708,19 +2844,19 @@
         <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>182</v>
       </c>
       <c r="D56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E56" t="s">
         <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
         <v>185</v>
@@ -2731,19 +2867,19 @@
         <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E57" t="s">
         <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
         <v>185</v>
@@ -2754,19 +2890,19 @@
         <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
         <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E58" t="s">
         <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
         <v>185</v>
@@ -2777,19 +2913,19 @@
         <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
         <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
         <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G59" t="s">
         <v>185</v>
@@ -2800,19 +2936,19 @@
         <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" t="s">
         <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="G60" t="s">
         <v>185</v>
@@ -2823,19 +2959,19 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E61" t="s">
         <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="G61" t="s">
         <v>185</v>
@@ -2846,19 +2982,19 @@
         <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
         <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="G62" t="s">
         <v>185</v>
@@ -2869,19 +3005,19 @@
         <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E63" t="s">
         <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G63" t="s">
         <v>185</v>
@@ -2892,19 +3028,19 @@
         <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
         <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E64" t="s">
         <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G64" t="s">
         <v>185</v>
@@ -2915,19 +3051,19 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
         <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E65" t="s">
         <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G65" t="s">
         <v>185</v>
@@ -2938,19 +3074,19 @@
         <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
         <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E66" t="s">
         <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="G66" t="s">
         <v>185</v>
@@ -2961,19 +3097,19 @@
         <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
         <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E67" t="s">
         <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="G67" t="s">
         <v>185</v>
@@ -2984,19 +3120,19 @@
         <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E68" t="s">
         <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G68" t="s">
         <v>185</v>
@@ -3007,19 +3143,19 @@
         <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
         <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E69" t="s">
         <v>183</v>
       </c>
       <c r="F69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G69" t="s">
         <v>185</v>
@@ -3030,19 +3166,19 @@
         <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
         <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E70" t="s">
         <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G70" t="s">
         <v>185</v>
@@ -3053,19 +3189,19 @@
         <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
         <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E71" t="s">
         <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G71" t="s">
         <v>185</v>
@@ -3076,19 +3212,19 @@
         <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E72" t="s">
         <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G72" t="s">
         <v>185</v>
@@ -3099,19 +3235,19 @@
         <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E73" t="s">
         <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="G73" t="s">
         <v>185</v>
@@ -3122,16 +3258,19 @@
         <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E74" t="s">
         <v>183</v>
+      </c>
+      <c r="F74" t="s">
+        <v>230</v>
       </c>
       <c r="G74" t="s">
         <v>185</v>
@@ -3142,16 +3281,19 @@
         <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
         <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
         <v>183</v>
+      </c>
+      <c r="F75" t="s">
+        <v>231</v>
       </c>
       <c r="G75" t="s">
         <v>185</v>
@@ -3162,16 +3304,19 @@
         <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E76" t="s">
         <v>183</v>
+      </c>
+      <c r="F76" t="s">
+        <v>232</v>
       </c>
       <c r="G76" t="s">
         <v>185</v>
@@ -3182,16 +3327,19 @@
         <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
         <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E77" t="s">
         <v>183</v>
+      </c>
+      <c r="F77" t="s">
+        <v>233</v>
       </c>
       <c r="G77" t="s">
         <v>185</v>
@@ -3202,16 +3350,19 @@
         <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E78" t="s">
         <v>183</v>
+      </c>
+      <c r="F78" t="s">
+        <v>248</v>
       </c>
       <c r="G78" t="s">
         <v>185</v>
@@ -3222,16 +3373,19 @@
         <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E79" t="s">
         <v>183</v>
+      </c>
+      <c r="F79" t="s">
+        <v>249</v>
       </c>
       <c r="G79" t="s">
         <v>185</v>
@@ -3242,16 +3396,19 @@
         <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E80" t="s">
         <v>183</v>
+      </c>
+      <c r="F80" t="s">
+        <v>391</v>
       </c>
       <c r="G80" t="s">
         <v>185</v>
@@ -3262,16 +3419,19 @@
         <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E81" t="s">
         <v>183</v>
+      </c>
+      <c r="F81" t="s">
+        <v>391</v>
       </c>
       <c r="G81" t="s">
         <v>185</v>
@@ -3282,39 +3442,42 @@
         <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
         <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E82" t="s">
         <v>183</v>
       </c>
+      <c r="F82" t="s">
+        <v>391</v>
+      </c>
       <c r="G82" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>181</v>
       </c>
-      <c r="B83" t="s">
-        <v>67</v>
+      <c r="B83" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="C83" t="s">
         <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E83" t="s">
         <v>183</v>
       </c>
       <c r="F83" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="G83" t="s">
         <v>185</v>
@@ -3325,19 +3488,19 @@
         <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E84" t="s">
         <v>183</v>
       </c>
       <c r="F84" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="G84" t="s">
         <v>185</v>
@@ -3348,19 +3511,19 @@
         <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E85" t="s">
         <v>183</v>
       </c>
       <c r="F85" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="G85" t="s">
         <v>185</v>
@@ -3371,19 +3534,19 @@
         <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E86" t="s">
         <v>183</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="G86" t="s">
         <v>185</v>
@@ -3394,19 +3557,19 @@
         <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E87" t="s">
         <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="G87" t="s">
         <v>185</v>
@@ -3417,19 +3580,19 @@
         <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E88" t="s">
         <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="G88" t="s">
         <v>185</v>
@@ -3440,19 +3603,19 @@
         <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="E89" t="s">
         <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="G89" t="s">
         <v>185</v>
@@ -3463,7 +3626,7 @@
         <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
         <v>182</v>
@@ -3475,7 +3638,7 @@
         <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="G90" t="s">
         <v>185</v>
@@ -3486,7 +3649,7 @@
         <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>341</v>
       </c>
       <c r="C91" t="s">
         <v>182</v>
@@ -3498,7 +3661,7 @@
         <v>183</v>
       </c>
       <c r="F91" t="s">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="G91" t="s">
         <v>185</v>
@@ -3509,19 +3672,19 @@
         <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="C92" t="s">
         <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
         <v>183</v>
       </c>
       <c r="F92" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="G92" t="s">
         <v>185</v>
@@ -3532,19 +3695,19 @@
         <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
         <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="G93" t="s">
         <v>185</v>
@@ -3555,19 +3718,19 @@
         <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
         <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
         <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G94" t="s">
         <v>185</v>
@@ -3578,19 +3741,19 @@
         <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
         <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
         <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G95" t="s">
         <v>185</v>
@@ -3601,19 +3764,19 @@
         <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
         <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
         <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
         <v>185</v>
@@ -3624,19 +3787,19 @@
         <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
         <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
         <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G97" t="s">
         <v>185</v>
@@ -3647,19 +3810,19 @@
         <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
         <v>182</v>
       </c>
       <c r="D98" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
         <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G98" t="s">
         <v>185</v>
@@ -3670,19 +3833,19 @@
         <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="C99" t="s">
         <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
         <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="G99" t="s">
         <v>185</v>
@@ -3693,19 +3856,19 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>366</v>
       </c>
       <c r="C100" t="s">
         <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
         <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="G100" t="s">
         <v>185</v>
@@ -3716,19 +3879,19 @@
         <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
         <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
         <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="G101" t="s">
         <v>185</v>
@@ -3739,19 +3902,19 @@
         <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
         <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="E102" t="s">
         <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G102" t="s">
         <v>185</v>
@@ -3762,19 +3925,19 @@
         <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="C103" t="s">
         <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
         <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="G103" t="s">
         <v>185</v>
@@ -3785,19 +3948,19 @@
         <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E104" t="s">
         <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G104" t="s">
         <v>185</v>
@@ -3808,19 +3971,19 @@
         <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
         <v>182</v>
       </c>
       <c r="D105" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E105" t="s">
         <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="G105" t="s">
         <v>185</v>
@@ -3831,19 +3994,19 @@
         <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E106" t="s">
         <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G106" t="s">
         <v>185</v>
@@ -3854,19 +4017,19 @@
         <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C107" t="s">
         <v>182</v>
       </c>
       <c r="D107" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E107" t="s">
         <v>183</v>
       </c>
       <c r="F107" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G107" t="s">
         <v>185</v>
@@ -3877,19 +4040,19 @@
         <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="C108" t="s">
         <v>182</v>
       </c>
       <c r="D108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E108" t="s">
         <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G108" t="s">
         <v>185</v>
@@ -3900,19 +4063,19 @@
         <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
         <v>182</v>
       </c>
       <c r="D109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E109" t="s">
         <v>183</v>
       </c>
       <c r="F109" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G109" t="s">
         <v>185</v>
@@ -3923,19 +4086,19 @@
         <v>181</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
         <v>182</v>
       </c>
       <c r="D110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E110" t="s">
         <v>183</v>
       </c>
       <c r="F110" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="G110" t="s">
         <v>185</v>
@@ -3946,19 +4109,19 @@
         <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s">
         <v>182</v>
       </c>
       <c r="D111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E111" t="s">
         <v>183</v>
       </c>
       <c r="F111" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G111" t="s">
         <v>185</v>
@@ -3969,19 +4132,19 @@
         <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
         <v>182</v>
       </c>
       <c r="D112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E112" t="s">
         <v>183</v>
       </c>
       <c r="F112" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G112" t="s">
         <v>185</v>
@@ -3992,19 +4155,19 @@
         <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C113" t="s">
         <v>182</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E113" t="s">
         <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G113" t="s">
         <v>185</v>
@@ -4015,19 +4178,19 @@
         <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
         <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E114" t="s">
         <v>183</v>
       </c>
       <c r="F114" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G114" t="s">
         <v>185</v>
@@ -4038,42 +4201,42 @@
         <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="C115" t="s">
         <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E115" t="s">
         <v>183</v>
       </c>
       <c r="F115" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="G115" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>181</v>
       </c>
-      <c r="B116" t="s">
-        <v>106</v>
+      <c r="B116" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="C116" t="s">
         <v>182</v>
       </c>
       <c r="D116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E116" t="s">
         <v>183</v>
       </c>
       <c r="F116" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="G116" t="s">
         <v>185</v>
@@ -4084,19 +4247,19 @@
         <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C117" t="s">
         <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E117" t="s">
         <v>183</v>
       </c>
       <c r="F117" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="G117" t="s">
         <v>185</v>
@@ -4107,19 +4270,19 @@
         <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
         <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E118" t="s">
         <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="G118" t="s">
         <v>185</v>
@@ -4130,19 +4293,19 @@
         <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C119" t="s">
         <v>182</v>
       </c>
       <c r="D119" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E119" t="s">
         <v>183</v>
       </c>
       <c r="F119" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G119" t="s">
         <v>185</v>
@@ -4153,19 +4316,19 @@
         <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
         <v>182</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E120" t="s">
         <v>183</v>
       </c>
       <c r="F120" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G120" t="s">
         <v>185</v>
@@ -4176,19 +4339,19 @@
         <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
         <v>182</v>
       </c>
       <c r="D121" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E121" t="s">
         <v>183</v>
       </c>
       <c r="F121" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G121" t="s">
         <v>185</v>
@@ -4199,19 +4362,19 @@
         <v>181</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C122" t="s">
         <v>182</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E122" t="s">
         <v>183</v>
       </c>
       <c r="F122" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="G122" t="s">
         <v>185</v>
@@ -4222,19 +4385,19 @@
         <v>181</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C123" t="s">
         <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E123" t="s">
         <v>183</v>
       </c>
       <c r="F123" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G123" t="s">
         <v>185</v>
@@ -4245,42 +4408,42 @@
         <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C124" t="s">
         <v>182</v>
       </c>
       <c r="D124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E124" t="s">
         <v>183</v>
       </c>
       <c r="F124" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G124" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>181</v>
       </c>
-      <c r="B125" t="s">
-        <v>117</v>
+      <c r="B125" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C125" t="s">
         <v>182</v>
       </c>
       <c r="D125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E125" t="s">
         <v>183</v>
       </c>
       <c r="F125" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G125" t="s">
         <v>185</v>
@@ -4291,19 +4454,19 @@
         <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="C126" t="s">
         <v>182</v>
       </c>
       <c r="D126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E126" t="s">
         <v>183</v>
       </c>
       <c r="F126" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="G126" t="s">
         <v>185</v>
@@ -4314,19 +4477,19 @@
         <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
         <v>182</v>
       </c>
       <c r="D127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E127" t="s">
         <v>183</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G127" t="s">
         <v>185</v>
@@ -4337,19 +4500,19 @@
         <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>367</v>
       </c>
       <c r="C128" t="s">
         <v>182</v>
       </c>
       <c r="D128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E128" t="s">
         <v>183</v>
       </c>
       <c r="F128" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="G128" t="s">
         <v>185</v>
@@ -4360,19 +4523,19 @@
         <v>181</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C129" t="s">
         <v>182</v>
       </c>
       <c r="D129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E129" t="s">
         <v>183</v>
       </c>
       <c r="F129" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G129" t="s">
         <v>185</v>
@@ -4383,19 +4546,19 @@
         <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
         <v>182</v>
       </c>
       <c r="D130" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E130" t="s">
         <v>183</v>
       </c>
       <c r="F130" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="G130" t="s">
         <v>185</v>
@@ -4406,19 +4569,19 @@
         <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C131" t="s">
         <v>182</v>
       </c>
       <c r="D131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E131" t="s">
         <v>183</v>
       </c>
       <c r="F131" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="G131" t="s">
         <v>185</v>
@@ -4429,19 +4592,19 @@
         <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s">
         <v>182</v>
       </c>
       <c r="D132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E132" t="s">
         <v>183</v>
       </c>
       <c r="F132" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G132" t="s">
         <v>185</v>
@@ -4452,19 +4615,19 @@
         <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
         <v>182</v>
       </c>
       <c r="D133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E133" t="s">
         <v>183</v>
       </c>
       <c r="F133" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="G133" t="s">
         <v>185</v>
@@ -4475,19 +4638,19 @@
         <v>181</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
         <v>182</v>
       </c>
       <c r="D134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E134" t="s">
         <v>183</v>
       </c>
       <c r="F134" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G134" t="s">
         <v>185</v>
@@ -4498,19 +4661,19 @@
         <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>114</v>
       </c>
       <c r="C135" t="s">
         <v>182</v>
       </c>
       <c r="D135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E135" t="s">
         <v>183</v>
       </c>
       <c r="F135" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="G135" t="s">
         <v>185</v>
@@ -4521,19 +4684,19 @@
         <v>181</v>
       </c>
       <c r="B136" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="C136" t="s">
         <v>182</v>
       </c>
       <c r="D136" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E136" t="s">
         <v>183</v>
       </c>
       <c r="F136" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="G136" t="s">
         <v>185</v>
@@ -4544,19 +4707,19 @@
         <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>330</v>
+        <v>116</v>
       </c>
       <c r="C137" t="s">
         <v>182</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E137" t="s">
         <v>183</v>
       </c>
       <c r="F137" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="G137" t="s">
         <v>185</v>
@@ -4567,19 +4730,19 @@
         <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>331</v>
+        <v>117</v>
       </c>
       <c r="C138" t="s">
         <v>182</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E138" t="s">
         <v>183</v>
       </c>
       <c r="F138" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="G138" t="s">
         <v>185</v>
@@ -4590,19 +4753,19 @@
         <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>323</v>
       </c>
       <c r="C139" t="s">
         <v>182</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E139" t="s">
         <v>183</v>
       </c>
       <c r="F139" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="G139" t="s">
         <v>185</v>
@@ -4613,19 +4776,19 @@
         <v>181</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C140" t="s">
         <v>182</v>
       </c>
       <c r="D140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E140" t="s">
         <v>183</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="s">
         <v>185</v>
@@ -4636,19 +4799,19 @@
         <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C141" t="s">
         <v>182</v>
       </c>
       <c r="D141" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E141" t="s">
         <v>183</v>
       </c>
       <c r="F141" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G141" t="s">
         <v>185</v>
@@ -4659,19 +4822,19 @@
         <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
         <v>182</v>
       </c>
       <c r="D142" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E142" t="s">
         <v>183</v>
       </c>
       <c r="F142" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="G142" t="s">
         <v>185</v>
@@ -4682,19 +4845,19 @@
         <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C143" t="s">
         <v>182</v>
       </c>
       <c r="D143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E143" t="s">
         <v>183</v>
       </c>
       <c r="F143" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="G143" t="s">
         <v>185</v>
@@ -4705,19 +4868,19 @@
         <v>181</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
         <v>182</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E144" t="s">
         <v>183</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G144" t="s">
         <v>185</v>
@@ -4728,19 +4891,19 @@
         <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C145" t="s">
         <v>182</v>
       </c>
       <c r="D145" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E145" t="s">
         <v>183</v>
       </c>
       <c r="F145" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G145" t="s">
         <v>185</v>
@@ -4751,19 +4914,19 @@
         <v>181</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s">
         <v>182</v>
       </c>
       <c r="D146" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E146" t="s">
         <v>183</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="G146" t="s">
         <v>185</v>
@@ -4774,19 +4937,19 @@
         <v>181</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="C147" t="s">
         <v>182</v>
       </c>
       <c r="D147" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E147" t="s">
         <v>183</v>
       </c>
       <c r="F147" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="G147" t="s">
         <v>185</v>
@@ -4797,19 +4960,19 @@
         <v>181</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="C148" t="s">
         <v>182</v>
       </c>
       <c r="D148" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E148" t="s">
         <v>183</v>
       </c>
       <c r="F148" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="G148" t="s">
         <v>185</v>
@@ -4820,19 +4983,19 @@
         <v>181</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="C149" t="s">
         <v>182</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E149" t="s">
         <v>183</v>
       </c>
       <c r="F149" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="G149" t="s">
         <v>185</v>
@@ -4843,19 +5006,19 @@
         <v>181</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
         <v>182</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E150" t="s">
         <v>183</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="G150" t="s">
         <v>185</v>
@@ -4866,19 +5029,19 @@
         <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="C151" t="s">
         <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E151" t="s">
         <v>183</v>
       </c>
       <c r="F151" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="G151" t="s">
         <v>185</v>
@@ -4889,19 +5052,19 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
         <v>182</v>
       </c>
       <c r="D152" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E152" t="s">
         <v>183</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>124</v>
       </c>
       <c r="G152" t="s">
         <v>185</v>
@@ -4912,19 +5075,19 @@
         <v>181</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
         <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E153" t="s">
         <v>183</v>
       </c>
       <c r="F153" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G153" t="s">
         <v>185</v>
@@ -4935,19 +5098,19 @@
         <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C154" t="s">
         <v>182</v>
       </c>
       <c r="D154" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E154" t="s">
         <v>183</v>
       </c>
       <c r="F154" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G154" t="s">
         <v>185</v>
@@ -4958,19 +5121,19 @@
         <v>181</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C155" t="s">
         <v>182</v>
       </c>
       <c r="D155" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E155" t="s">
         <v>183</v>
       </c>
       <c r="F155" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="G155" t="s">
         <v>185</v>
@@ -4981,19 +5144,19 @@
         <v>181</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>363</v>
       </c>
       <c r="C156" t="s">
         <v>182</v>
       </c>
       <c r="D156" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E156" t="s">
         <v>183</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="G156" t="s">
         <v>185</v>
@@ -5004,19 +5167,19 @@
         <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
         <v>182</v>
       </c>
       <c r="D157" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
       <c r="E157" t="s">
         <v>183</v>
       </c>
       <c r="F157" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G157" t="s">
         <v>185</v>
@@ -5027,7 +5190,7 @@
         <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="C158" t="s">
         <v>182</v>
@@ -5039,10 +5202,10 @@
         <v>183</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="G158" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,7 +5213,7 @@
         <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C159" t="s">
         <v>182</v>
@@ -5062,10 +5225,10 @@
         <v>183</v>
       </c>
       <c r="F159" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G159" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5073,7 +5236,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
         <v>182</v>
@@ -5085,10 +5248,10 @@
         <v>183</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5096,7 +5259,7 @@
         <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C161" t="s">
         <v>182</v>
@@ -5108,10 +5271,10 @@
         <v>183</v>
       </c>
       <c r="F161" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="G161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5119,7 +5282,7 @@
         <v>181</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C162" t="s">
         <v>182</v>
@@ -5131,10 +5294,10 @@
         <v>183</v>
       </c>
       <c r="F162" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5142,7 +5305,7 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C163" t="s">
         <v>182</v>
@@ -5154,10 +5317,10 @@
         <v>183</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,7 +5328,7 @@
         <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
         <v>182</v>
@@ -5177,18 +5340,18 @@
         <v>183</v>
       </c>
       <c r="F164" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>181</v>
       </c>
-      <c r="B165" t="s">
-        <v>150</v>
+      <c r="B165" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="C165" t="s">
         <v>182</v>
@@ -5200,18 +5363,18 @@
         <v>183</v>
       </c>
       <c r="F165" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="G165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
-      <c r="B166" t="s">
-        <v>151</v>
+      <c r="B166" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C166" t="s">
         <v>182</v>
@@ -5223,10 +5386,10 @@
         <v>183</v>
       </c>
       <c r="F166" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="G166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,7 +5397,7 @@
         <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C167" t="s">
         <v>182</v>
@@ -5246,10 +5409,10 @@
         <v>183</v>
       </c>
       <c r="F167" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G167" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5257,7 +5420,7 @@
         <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C168" t="s">
         <v>182</v>
@@ -5269,10 +5432,10 @@
         <v>183</v>
       </c>
       <c r="F168" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G168" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5280,22 +5443,22 @@
         <v>181</v>
       </c>
       <c r="B169" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C169" t="s">
         <v>182</v>
       </c>
       <c r="D169" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E169" t="s">
         <v>183</v>
       </c>
       <c r="F169" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,22 +5466,22 @@
         <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C170" t="s">
         <v>182</v>
       </c>
       <c r="D170" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E170" t="s">
         <v>183</v>
       </c>
       <c r="F170" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G170" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5326,22 +5489,22 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
         <v>182</v>
       </c>
       <c r="D171" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
         <v>183</v>
       </c>
       <c r="F171" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="G171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5349,22 +5512,22 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C172" t="s">
         <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E172" t="s">
         <v>183</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,22 +5535,22 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C173" t="s">
         <v>182</v>
       </c>
       <c r="D173" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E173" t="s">
         <v>183</v>
       </c>
       <c r="F173" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5395,22 +5558,22 @@
         <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C174" t="s">
         <v>182</v>
       </c>
       <c r="D174" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E174" t="s">
         <v>183</v>
       </c>
       <c r="F174" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G174" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5418,19 +5581,19 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
       </c>
       <c r="D175" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E175" t="s">
         <v>183</v>
       </c>
       <c r="F175" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G175" t="s">
         <v>186</v>
@@ -5441,19 +5604,19 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C176" t="s">
         <v>182</v>
       </c>
       <c r="D176" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E176" t="s">
         <v>183</v>
       </c>
       <c r="F176" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G176" t="s">
         <v>186</v>
@@ -5464,19 +5627,19 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C177" t="s">
         <v>182</v>
       </c>
       <c r="D177" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E177" t="s">
         <v>183</v>
       </c>
       <c r="F177" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G177" t="s">
         <v>186</v>
@@ -5487,19 +5650,19 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C178" t="s">
         <v>182</v>
       </c>
       <c r="D178" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="E178" t="s">
         <v>183</v>
       </c>
       <c r="F178" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="G178" t="s">
         <v>186</v>
@@ -5510,19 +5673,19 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
         <v>182</v>
       </c>
       <c r="D179" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E179" t="s">
         <v>183</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G179" t="s">
         <v>186</v>
@@ -5533,19 +5696,19 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
         <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E180" t="s">
         <v>183</v>
       </c>
       <c r="F180" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G180" t="s">
         <v>186</v>
@@ -5556,19 +5719,19 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C181" t="s">
         <v>182</v>
       </c>
       <c r="D181" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E181" t="s">
         <v>183</v>
       </c>
       <c r="F181" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G181" t="s">
         <v>186</v>
@@ -5579,19 +5742,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="C182" t="s">
         <v>182</v>
       </c>
       <c r="D182" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E182" t="s">
         <v>183</v>
       </c>
       <c r="F182" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G182" t="s">
         <v>186</v>
@@ -5602,19 +5765,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C183" t="s">
         <v>182</v>
       </c>
       <c r="D183" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E183" t="s">
         <v>183</v>
       </c>
       <c r="F183" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="G183" t="s">
         <v>186</v>
@@ -5625,19 +5788,19 @@
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C184" t="s">
         <v>182</v>
       </c>
       <c r="D184" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E184" t="s">
         <v>183</v>
       </c>
       <c r="F184" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G184" t="s">
         <v>186</v>
@@ -5648,19 +5811,19 @@
         <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C185" t="s">
         <v>182</v>
       </c>
       <c r="D185" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
       </c>
       <c r="F185" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G185" t="s">
         <v>186</v>
@@ -5671,68 +5834,68 @@
         <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="C186" t="s">
         <v>182</v>
       </c>
       <c r="D186" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E186" t="s">
         <v>183</v>
       </c>
       <c r="F186" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="G186" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>181</v>
       </c>
-      <c r="B187" t="s">
-        <v>170</v>
+      <c r="B187" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C187" t="s">
         <v>182</v>
       </c>
       <c r="D187" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="E187" t="s">
         <v>183</v>
       </c>
       <c r="F187" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="G187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>181</v>
       </c>
-      <c r="B188" t="s">
-        <v>60</v>
+      <c r="B188" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="C188" t="s">
         <v>182</v>
       </c>
       <c r="D188" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E188" t="s">
         <v>183</v>
       </c>
       <c r="F188" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="G188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5740,19 +5903,19 @@
         <v>181</v>
       </c>
       <c r="B189" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C189" t="s">
         <v>182</v>
       </c>
       <c r="D189" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E189" t="s">
         <v>183</v>
       </c>
       <c r="F189" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G189" t="s">
         <v>186</v>
@@ -5763,19 +5926,19 @@
         <v>181</v>
       </c>
       <c r="B190" t="s">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="C190" t="s">
         <v>182</v>
       </c>
       <c r="D190" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E190" t="s">
         <v>183</v>
       </c>
       <c r="F190" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G190" t="s">
         <v>186</v>
@@ -5786,19 +5949,19 @@
         <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C191" t="s">
         <v>182</v>
       </c>
       <c r="D191" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E191" t="s">
         <v>183</v>
       </c>
       <c r="F191" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G191" t="s">
         <v>186</v>
@@ -5809,19 +5972,19 @@
         <v>181</v>
       </c>
       <c r="B192" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C192" t="s">
         <v>182</v>
       </c>
       <c r="D192" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E192" t="s">
         <v>183</v>
       </c>
       <c r="F192" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G192" t="s">
         <v>186</v>
@@ -5832,19 +5995,19 @@
         <v>181</v>
       </c>
       <c r="B193" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C193" t="s">
         <v>182</v>
       </c>
       <c r="D193" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E193" t="s">
         <v>183</v>
       </c>
       <c r="F193" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G193" t="s">
         <v>186</v>
@@ -5855,25 +6018,509 @@
         <v>181</v>
       </c>
       <c r="B194" t="s">
+        <v>361</v>
+      </c>
+      <c r="C194" t="s">
+        <v>182</v>
+      </c>
+      <c r="D194" t="s">
+        <v>337</v>
+      </c>
+      <c r="E194" t="s">
+        <v>183</v>
+      </c>
+      <c r="F194" t="s">
+        <v>299</v>
+      </c>
+      <c r="G194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>181</v>
+      </c>
+      <c r="B195" t="s">
+        <v>159</v>
+      </c>
+      <c r="C195" t="s">
+        <v>182</v>
+      </c>
+      <c r="D195" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" t="s">
+        <v>183</v>
+      </c>
+      <c r="F195" t="s">
+        <v>300</v>
+      </c>
+      <c r="G195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>181</v>
+      </c>
+      <c r="B196" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" t="s">
+        <v>182</v>
+      </c>
+      <c r="D196" t="s">
+        <v>337</v>
+      </c>
+      <c r="E196" t="s">
+        <v>183</v>
+      </c>
+      <c r="F196" t="s">
+        <v>301</v>
+      </c>
+      <c r="G196" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>181</v>
+      </c>
+      <c r="B197" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" t="s">
+        <v>182</v>
+      </c>
+      <c r="D197" t="s">
+        <v>337</v>
+      </c>
+      <c r="E197" t="s">
+        <v>183</v>
+      </c>
+      <c r="F197" t="s">
+        <v>302</v>
+      </c>
+      <c r="G197" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>181</v>
+      </c>
+      <c r="B198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" t="s">
+        <v>182</v>
+      </c>
+      <c r="D198" t="s">
+        <v>337</v>
+      </c>
+      <c r="E198" t="s">
+        <v>183</v>
+      </c>
+      <c r="F198" t="s">
+        <v>303</v>
+      </c>
+      <c r="G198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>181</v>
+      </c>
+      <c r="B199" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" t="s">
+        <v>182</v>
+      </c>
+      <c r="D199" t="s">
+        <v>337</v>
+      </c>
+      <c r="E199" t="s">
+        <v>183</v>
+      </c>
+      <c r="F199" t="s">
+        <v>304</v>
+      </c>
+      <c r="G199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" t="s">
+        <v>163</v>
+      </c>
+      <c r="C200" t="s">
+        <v>182</v>
+      </c>
+      <c r="D200" t="s">
+        <v>317</v>
+      </c>
+      <c r="E200" t="s">
+        <v>183</v>
+      </c>
+      <c r="F200" t="s">
+        <v>305</v>
+      </c>
+      <c r="G200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" t="s">
+        <v>164</v>
+      </c>
+      <c r="C201" t="s">
+        <v>182</v>
+      </c>
+      <c r="D201" t="s">
+        <v>317</v>
+      </c>
+      <c r="E201" t="s">
+        <v>183</v>
+      </c>
+      <c r="F201" t="s">
+        <v>305</v>
+      </c>
+      <c r="G201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>181</v>
+      </c>
+      <c r="B202" t="s">
+        <v>165</v>
+      </c>
+      <c r="C202" t="s">
+        <v>182</v>
+      </c>
+      <c r="D202" t="s">
+        <v>317</v>
+      </c>
+      <c r="E202" t="s">
+        <v>183</v>
+      </c>
+      <c r="F202" t="s">
+        <v>306</v>
+      </c>
+      <c r="G202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>181</v>
+      </c>
+      <c r="B203" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" t="s">
+        <v>182</v>
+      </c>
+      <c r="D203" t="s">
+        <v>317</v>
+      </c>
+      <c r="E203" t="s">
+        <v>183</v>
+      </c>
+      <c r="F203" t="s">
+        <v>306</v>
+      </c>
+      <c r="G203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>181</v>
+      </c>
+      <c r="B204" t="s">
+        <v>166</v>
+      </c>
+      <c r="C204" t="s">
+        <v>182</v>
+      </c>
+      <c r="D204" t="s">
+        <v>317</v>
+      </c>
+      <c r="E204" t="s">
+        <v>183</v>
+      </c>
+      <c r="F204" t="s">
+        <v>307</v>
+      </c>
+      <c r="G204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>181</v>
+      </c>
+      <c r="B205" t="s">
+        <v>167</v>
+      </c>
+      <c r="C205" t="s">
+        <v>182</v>
+      </c>
+      <c r="D205" t="s">
+        <v>317</v>
+      </c>
+      <c r="E205" t="s">
+        <v>183</v>
+      </c>
+      <c r="F205" t="s">
+        <v>307</v>
+      </c>
+      <c r="G205" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>181</v>
+      </c>
+      <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" t="s">
+        <v>182</v>
+      </c>
+      <c r="D206" t="s">
+        <v>317</v>
+      </c>
+      <c r="E206" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" t="s">
+        <v>308</v>
+      </c>
+      <c r="G206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" t="s">
+        <v>182</v>
+      </c>
+      <c r="D207" t="s">
+        <v>317</v>
+      </c>
+      <c r="E207" t="s">
+        <v>183</v>
+      </c>
+      <c r="F207" t="s">
+        <v>309</v>
+      </c>
+      <c r="G207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>181</v>
+      </c>
+      <c r="B208" t="s">
+        <v>170</v>
+      </c>
+      <c r="C208" t="s">
+        <v>182</v>
+      </c>
+      <c r="D208" t="s">
+        <v>317</v>
+      </c>
+      <c r="E208" t="s">
+        <v>183</v>
+      </c>
+      <c r="F208" t="s">
+        <v>310</v>
+      </c>
+      <c r="G208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209" t="s">
+        <v>60</v>
+      </c>
+      <c r="C209" t="s">
+        <v>182</v>
+      </c>
+      <c r="D209" t="s">
+        <v>317</v>
+      </c>
+      <c r="E209" t="s">
+        <v>183</v>
+      </c>
+      <c r="F209" t="s">
+        <v>311</v>
+      </c>
+      <c r="G209" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210" t="s">
+        <v>171</v>
+      </c>
+      <c r="C210" t="s">
+        <v>182</v>
+      </c>
+      <c r="D210" t="s">
+        <v>317</v>
+      </c>
+      <c r="E210" t="s">
+        <v>183</v>
+      </c>
+      <c r="F210" t="s">
+        <v>311</v>
+      </c>
+      <c r="G210" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>181</v>
+      </c>
+      <c r="B211" t="s">
+        <v>335</v>
+      </c>
+      <c r="C211" t="s">
+        <v>182</v>
+      </c>
+      <c r="D211" t="s">
+        <v>317</v>
+      </c>
+      <c r="E211" t="s">
+        <v>183</v>
+      </c>
+      <c r="F211" t="s">
+        <v>311</v>
+      </c>
+      <c r="G211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>181</v>
+      </c>
+      <c r="B212" t="s">
+        <v>172</v>
+      </c>
+      <c r="C212" t="s">
+        <v>182</v>
+      </c>
+      <c r="D212" t="s">
+        <v>317</v>
+      </c>
+      <c r="E212" t="s">
+        <v>183</v>
+      </c>
+      <c r="F212" t="s">
+        <v>311</v>
+      </c>
+      <c r="G212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>181</v>
+      </c>
+      <c r="B213" t="s">
+        <v>173</v>
+      </c>
+      <c r="C213" t="s">
+        <v>182</v>
+      </c>
+      <c r="D213" t="s">
+        <v>317</v>
+      </c>
+      <c r="E213" t="s">
+        <v>183</v>
+      </c>
+      <c r="F213" t="s">
+        <v>311</v>
+      </c>
+      <c r="G213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>181</v>
+      </c>
+      <c r="B214" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" t="s">
+        <v>182</v>
+      </c>
+      <c r="D214" t="s">
+        <v>317</v>
+      </c>
+      <c r="E214" t="s">
+        <v>183</v>
+      </c>
+      <c r="F214" t="s">
+        <v>312</v>
+      </c>
+      <c r="G214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>181</v>
+      </c>
+      <c r="B215" t="s">
         <v>175</v>
       </c>
-      <c r="C194" t="s">
-        <v>182</v>
-      </c>
-      <c r="D194" t="s">
-        <v>318</v>
-      </c>
-      <c r="E194" t="s">
-        <v>183</v>
-      </c>
-      <c r="F194" t="s">
-        <v>312</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="C215" t="s">
+        <v>182</v>
+      </c>
+      <c r="D215" t="s">
+        <v>317</v>
+      </c>
+      <c r="E215" t="s">
+        <v>183</v>
+      </c>
+      <c r="F215" t="s">
+        <v>311</v>
+      </c>
+      <c r="G215" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>